--- a/results/1Fold_eyepacs_Classification.xlsx
+++ b/results/1Fold_eyepacs_Classification.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,6 +539,50 @@
         <v>0.1492462123611144</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>eyepacs</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>softmax</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>resnet18</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>50</v>
+      </c>
+      <c r="F3" t="n">
+        <v>42</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.6973452573762411</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.8900077459333849</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.109992254066615</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.7936765016548131</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.427012175321579</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.8964582665690354</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
